--- a/Documents/Testing Plan.xlsx
+++ b/Documents/Testing Plan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Documents\SWEG-MT-GameProject\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1wilss91\Downloads\SWEG-MT-GameProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33EF63CE-6DB1-4DDD-AB70-19FE933F0C63}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Test ID</t>
   </si>
@@ -199,12 +198,18 @@
   </si>
   <si>
     <t>Can the doors be closed?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,11 +542,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,6 +581,9 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -584,6 +592,9 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -592,6 +603,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -600,6 +614,9 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -616,6 +633,9 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -624,6 +644,9 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -640,6 +663,9 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -648,6 +674,9 @@
       <c r="B12" t="s">
         <v>36</v>
       </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -664,6 +693,9 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -672,6 +704,9 @@
       <c r="B15" t="s">
         <v>11</v>
       </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -680,32 +715,44 @@
       <c r="B16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2.4</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2.5</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2.6</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>3</v>
       </c>
@@ -713,39 +760,51 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>3.1</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>3.2</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3.3</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>3.4</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -753,7 +812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -761,7 +820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>4.2</v>
       </c>
@@ -769,7 +828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
@@ -777,7 +836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -785,31 +844,40 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5.0999999999999996</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5.2</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>5.3</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>6</v>
       </c>
@@ -817,23 +885,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>6.1</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>6.2</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>7</v>
       </c>
@@ -841,31 +915,40 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>7.1</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
@@ -873,39 +956,51 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>9</v>
       </c>
@@ -913,28 +1008,37 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>9.1</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>9.1999999999999993</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>9.3000000000000007</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
